--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,13 +79,16 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>co</t>
@@ -91,112 +100,109 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -685,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,31 +709,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.95</v>
+      </c>
+      <c r="L4">
+        <v>114</v>
+      </c>
+      <c r="M4">
+        <v>114</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8116438356164384</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,16 +812,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,16 +862,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7058823529411765</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9069767441860465</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.9033942558746736</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L9">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>346</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5767195767195767</v>
+        <v>0.76</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5193798449612403</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8873239436619719</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4705882352941176</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.8671875</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3636363636363636</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8846153846153846</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3389830508474576</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8658536585365854</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.32</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.8636363636363636</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2751677852348993</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.8625</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,115 +1341,187 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007089912987431518</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>94</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L17">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.0873015873015873</v>
+      </c>
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>0.15</v>
-      </c>
-      <c r="F17">
-        <v>0.85</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3081</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.84375</v>
-      </c>
-      <c r="L17">
-        <v>108</v>
-      </c>
-      <c r="M17">
-        <v>108</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>230</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L19">
+        <v>69</v>
+      </c>
+      <c r="M19">
+        <v>69</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.006445375443119562</v>
+      </c>
+      <c r="C20">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L19">
-        <v>39</v>
-      </c>
-      <c r="M19">
-        <v>39</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>0.17</v>
+      </c>
+      <c r="F20">
+        <v>0.83</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3083</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.8275862068965517</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1455,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.82</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1481,12 +1559,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>0.7916666666666666</v>
@@ -1512,16 +1590,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1538,16 +1616,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1559,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1585,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1611,12 +1689,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>0.75</v>
@@ -1642,16 +1720,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.7428571428571429</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1663,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.7411764705882353</v>
+        <v>0.72</v>
       </c>
       <c r="L29">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1689,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1712,24 +1790,24 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.7112970711297071</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="M31">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1741,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.696969696969697</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1767,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.6785714285714286</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1793,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6702127659574468</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1819,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1845,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.6629213483146067</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1871,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.6461538461538462</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1897,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1923,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5952380952380952</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1949,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.4931506849315068</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1975,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.4666666666666667</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2001,59 +2079,33 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.4358974358974359</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>34</v>
-      </c>
-      <c r="M42">
-        <v>34</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="L43">
-        <v>23</v>
-      </c>
-      <c r="M43">
-        <v>23</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
